--- a/pincode_jaipur.xlsx
+++ b/pincode_jaipur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>302033</t>
+          <t>302034</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -484,11 +484,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>302022</t>
+          <t>302024</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>302039</t>
+          <t>302004</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -520,11 +520,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>302023</t>
+          <t>302003</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -534,15 +534,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>302006</t>
+          <t>302017</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>302016</t>
+          <t>302013</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -610,11 +610,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>302019</t>
+          <t>302022</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -628,11 +628,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>302020</t>
+          <t>302033</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -642,15 +642,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>302021</t>
+          <t>302006</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -664,11 +664,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>302012</t>
+          <t>302019</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -678,15 +678,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>302017</t>
+          <t>302021</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -700,11 +700,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>302003</t>
+          <t>302012</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>302004</t>
+          <t>302023</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -736,11 +736,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>302013</t>
+          <t>302016</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -750,15 +750,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>302024</t>
+          <t>302039</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -772,11 +772,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>302034</t>
+          <t>302029</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jaipur</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>302020</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
